--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_MIS_AgencyProfile_ListView.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_MIS_AgencyProfile_ListView.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA23FB0-69B7-4D9F-B1EE-6BEA6FD0C8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE1CFB1-DA86-4756-9745-5DEAB86FC852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{ADF0D570-BF98-41EC-9AD6-391445960881}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" activeTab="1" xr2:uid="{ADF0D570-BF98-41EC-9AD6-391445960881}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Keyword</t>
   </si>
@@ -91,9 +91,6 @@
     <t>getData=ProfileType</t>
   </si>
   <si>
-    <t>Agency</t>
-  </si>
-  <si>
     <t>enter_text</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>button_AddToProfile</t>
+  </si>
+  <si>
+    <t>AGENCY PROFILE</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,13 +583,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -597,13 +597,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -611,13 +611,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -625,13 +625,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -639,22 +639,28 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -670,14 +676,14 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
@@ -694,13 +700,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -714,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
